--- a/dSP/src/main/java/com/testdata/InputValuesForDSP.xlsx
+++ b/dSP/src/main/java/com/testdata/InputValuesForDSP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="4005" windowWidth="19935" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18225" windowHeight="5760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:R20"/>
+  <oleSize ref="A1:R17"/>
 </workbook>
 </file>
 
@@ -489,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -558,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
